--- a/Master/MasterData/NGWord.xlsx
+++ b/Master/MasterData/NGWord.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">NGWord</t>
   </si>
   <si>
-    <t xml:space="preserve">String</t>
+    <t xml:space="preserve">Wstring</t>
   </si>
   <si>
     <t xml:space="preserve">$ITEM</t>
@@ -495,8 +495,8 @@
   </sheetPr>
   <dimension ref="A3:B89"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B90" activeCellId="0" sqref="B90"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Master/MasterData/NGWord.xlsx
+++ b/Master/MasterData/NGWord.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">NGWord</t>
   </si>
   <si>
-    <t xml:space="preserve">Wstring</t>
+    <t xml:space="preserve">String</t>
   </si>
   <si>
     <t xml:space="preserve">$ITEM</t>
@@ -496,7 +496,7 @@
   <dimension ref="A3:B89"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Master/MasterData/NGWord.xlsx
+++ b/Master/MasterData/NGWord.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t xml:space="preserve">$AUTO_KEY</t>
   </si>
@@ -40,12 +40,21 @@
     <t xml:space="preserve">アナル</t>
   </si>
   <si>
+    <t xml:space="preserve">ｱﾅﾙ</t>
+  </si>
+  <si>
     <t xml:space="preserve">アヘン</t>
   </si>
   <si>
+    <t xml:space="preserve">ｱﾍﾝ</t>
+  </si>
+  <si>
     <t xml:space="preserve">インポ</t>
   </si>
   <si>
+    <t xml:space="preserve">ｲﾝﾎﾟ</t>
+  </si>
+  <si>
     <t xml:space="preserve">いんも</t>
   </si>
   <si>
@@ -55,6 +64,9 @@
     <t xml:space="preserve">インラン</t>
   </si>
   <si>
+    <t xml:space="preserve">ｲﾝﾗﾝ</t>
+  </si>
+  <si>
     <t xml:space="preserve">うんこ</t>
   </si>
   <si>
@@ -64,12 +76,18 @@
     <t xml:space="preserve">エロ</t>
   </si>
   <si>
+    <t xml:space="preserve">ｴﾛ</t>
+  </si>
+  <si>
     <t xml:space="preserve">えっち</t>
   </si>
   <si>
     <t xml:space="preserve">エッチ</t>
   </si>
   <si>
+    <t xml:space="preserve">ｴｯﾁ</t>
+  </si>
+  <si>
     <t xml:space="preserve">多い日も安心</t>
   </si>
   <si>
@@ -94,12 +112,18 @@
     <t xml:space="preserve">キャバ嬢</t>
   </si>
   <si>
+    <t xml:space="preserve">ｷｬﾊﾞ嬢</t>
+  </si>
+  <si>
     <t xml:space="preserve">巨乳</t>
   </si>
   <si>
     <t xml:space="preserve">クンニ</t>
   </si>
   <si>
+    <t xml:space="preserve">ｸﾝﾆ</t>
+  </si>
+  <si>
     <t xml:space="preserve">支那</t>
   </si>
   <si>
@@ -115,15 +139,24 @@
     <t xml:space="preserve">スケベ</t>
   </si>
   <si>
+    <t xml:space="preserve">ｽｹﾍﾞ</t>
+  </si>
+  <si>
     <t xml:space="preserve">すまた</t>
   </si>
   <si>
     <t xml:space="preserve">スカトロ</t>
   </si>
   <si>
+    <t xml:space="preserve">ｽｶﾄﾛ</t>
+  </si>
+  <si>
     <t xml:space="preserve">セクハラ</t>
   </si>
   <si>
+    <t xml:space="preserve">ｾｸﾊﾗ</t>
+  </si>
+  <si>
     <t xml:space="preserve">絶倫</t>
   </si>
   <si>
@@ -133,27 +166,42 @@
     <t xml:space="preserve">チェリーボーイ</t>
   </si>
   <si>
+    <t xml:space="preserve">ﾁｪﾘｰﾎﾞｰｲ</t>
+  </si>
+  <si>
     <t xml:space="preserve">ちんこ</t>
   </si>
   <si>
     <t xml:space="preserve">チンコ</t>
   </si>
   <si>
+    <t xml:space="preserve">ﾁﾝｺ</t>
+  </si>
+  <si>
     <t xml:space="preserve">チンタ</t>
   </si>
   <si>
+    <t xml:space="preserve">ﾁﾝﾀ</t>
+  </si>
+  <si>
     <t xml:space="preserve">つんぼ</t>
   </si>
   <si>
     <t xml:space="preserve">ツンボ</t>
   </si>
   <si>
+    <t xml:space="preserve">ﾂﾝﾎﾞ</t>
+  </si>
+  <si>
     <t xml:space="preserve">ていんた</t>
   </si>
   <si>
     <t xml:space="preserve">テインタ</t>
   </si>
   <si>
+    <t xml:space="preserve">ﾃｲﾝﾀ</t>
+  </si>
+  <si>
     <t xml:space="preserve">てまん</t>
   </si>
   <si>
@@ -163,6 +211,9 @@
     <t xml:space="preserve">トップレス</t>
   </si>
   <si>
+    <t xml:space="preserve">ﾄｯﾌﾟﾚｽ</t>
+  </si>
+  <si>
     <t xml:space="preserve">なかだし</t>
   </si>
   <si>
@@ -190,6 +241,9 @@
     <t xml:space="preserve">ファック</t>
   </si>
   <si>
+    <t xml:space="preserve">ﾌｧｯｸ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fuck</t>
   </si>
   <si>
@@ -199,6 +253,9 @@
     <t xml:space="preserve">フェラ</t>
   </si>
   <si>
+    <t xml:space="preserve">ﾌｪﾗ</t>
+  </si>
+  <si>
     <t xml:space="preserve">部落</t>
   </si>
   <si>
@@ -211,21 +268,33 @@
     <t xml:space="preserve">ホモ</t>
   </si>
   <si>
+    <t xml:space="preserve">ﾎﾓ</t>
+  </si>
+  <si>
     <t xml:space="preserve">マリファナ</t>
   </si>
   <si>
+    <t xml:space="preserve">ﾏﾘﾌｧﾅ</t>
+  </si>
+  <si>
     <t xml:space="preserve">まんこ</t>
   </si>
   <si>
     <t xml:space="preserve">マンコ</t>
   </si>
   <si>
+    <t xml:space="preserve">ﾏﾝｺ</t>
+  </si>
+  <si>
     <t xml:space="preserve">まんちょ</t>
   </si>
   <si>
     <t xml:space="preserve">マンチョ</t>
   </si>
   <si>
+    <t xml:space="preserve">ﾏﾝﾁｮ</t>
+  </si>
+  <si>
     <t xml:space="preserve">めくら</t>
   </si>
   <si>
@@ -235,55 +304,106 @@
     <t xml:space="preserve">モッコリ</t>
   </si>
   <si>
+    <t xml:space="preserve">ﾓｯｺﾘ</t>
+  </si>
+  <si>
     <t xml:space="preserve">よここてい</t>
   </si>
   <si>
     <t xml:space="preserve">レイプ</t>
   </si>
   <si>
+    <t xml:space="preserve">ﾚｲﾌﾟ</t>
+  </si>
+  <si>
     <t xml:space="preserve">ロリコン</t>
   </si>
   <si>
+    <t xml:space="preserve">ﾛﾘｺﾝ</t>
+  </si>
+  <si>
     <t xml:space="preserve">ass</t>
   </si>
   <si>
+    <t xml:space="preserve">ａｓｓ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adolf Hitler</t>
   </si>
   <si>
+    <t xml:space="preserve">Ａｄｏｌｆ　Ｈｉｔｌｅｒ</t>
+  </si>
+  <si>
     <t xml:space="preserve">DIO</t>
   </si>
   <si>
+    <t xml:space="preserve">ＤＩＯ</t>
+  </si>
+  <si>
     <t xml:space="preserve">FA!</t>
   </si>
   <si>
+    <t xml:space="preserve">ＦＡ！</t>
+  </si>
+  <si>
     <t xml:space="preserve">fuk</t>
   </si>
   <si>
+    <t xml:space="preserve">ｆｕｋ</t>
+  </si>
+  <si>
     <t xml:space="preserve">jap</t>
   </si>
   <si>
+    <t xml:space="preserve">ｊａｐ</t>
+  </si>
+  <si>
     <t xml:space="preserve">JOINT</t>
   </si>
   <si>
+    <t xml:space="preserve">ＪＯＩＮＴ</t>
+  </si>
+  <si>
     <t xml:space="preserve">PEE</t>
   </si>
   <si>
+    <t xml:space="preserve">ＰＥＥ</t>
+  </si>
+  <si>
     <t xml:space="preserve">T.T</t>
   </si>
   <si>
+    <t xml:space="preserve">Ｔ＿Ｔ</t>
+  </si>
+  <si>
     <t xml:space="preserve">XX XY</t>
   </si>
   <si>
+    <t xml:space="preserve">ＸＸ　ＹＹ</t>
+  </si>
+  <si>
     <t xml:space="preserve">072</t>
   </si>
   <si>
+    <t xml:space="preserve">０７２</t>
+  </si>
+  <si>
     <t xml:space="preserve">206</t>
   </si>
   <si>
+    <t xml:space="preserve">２０６</t>
+  </si>
+  <si>
     <t xml:space="preserve">310</t>
   </si>
   <si>
+    <t xml:space="preserve">３１０</t>
+  </si>
+  <si>
     <t xml:space="preserve">455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">４５５</t>
   </si>
 </sst>
 </file>
@@ -493,10 +613,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:B89"/>
+  <dimension ref="A3:B129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A104" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C125" activeCellId="0" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -535,6 +655,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -640,47 +761,47 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -735,7 +856,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -942,6 +1063,206 @@
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="1" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Master/MasterData/NGWord.xlsx
+++ b/Master/MasterData/NGWord.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t xml:space="preserve">$AUTO_KEY</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t xml:space="preserve">Fuck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ｆｕｃｋ</t>
   </si>
   <si>
     <t xml:space="preserve">風俗</t>
@@ -613,10 +616,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:B129"/>
+  <dimension ref="A3:B130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A104" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C125" activeCellId="0" sqref="C125"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B78" activeCellId="0" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1265,6 +1268,11 @@
         <v>127</v>
       </c>
     </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
